--- a/rhla_analysis/rhla1_3_exp_result/k6.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k6.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006474584272271136</v>
+        <v>0.006474584272271144</v>
       </c>
       <c r="B2" t="n">
         <v>0.2766699666070793</v>
@@ -466,21 +466,21 @@
         <v>0.1308610400682012</v>
       </c>
       <c r="D2" t="n">
-        <v>42.7316959626243</v>
+        <v>42.73169596262425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01793976790386649</v>
+        <v>0.01793976790386661</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3342213267886206</v>
+        <v>0.3342213267886207</v>
       </c>
       <c r="C3" t="n">
         <v>0.1150895140664962</v>
       </c>
       <c r="D3" t="n">
-        <v>18.63019235140646</v>
+        <v>18.63019235140634</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01192014892435434</v>
+        <v>0.01192014892435419</v>
       </c>
       <c r="B5" t="n">
         <v>0.316677377984041</v>
@@ -508,12 +508,12 @@
         <v>0.118073316283035</v>
       </c>
       <c r="D5" t="n">
-        <v>26.56656221274467</v>
+        <v>26.566562212745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.008116819308502044</v>
+        <v>0.008116819308502053</v>
       </c>
       <c r="B6" t="n">
         <v>0.2991487430587286</v>
@@ -522,12 +522,12 @@
         <v>0.1351236146632566</v>
       </c>
       <c r="D6" t="n">
-        <v>36.85541487234811</v>
+        <v>36.85541487234808</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01105671641048272</v>
+        <v>0.0110567164104827</v>
       </c>
       <c r="B7" t="n">
         <v>0.2970975459716101</v>
@@ -536,12 +536,12 @@
         <v>0.1057118499573743</v>
       </c>
       <c r="D7" t="n">
-        <v>26.87032342531062</v>
+        <v>26.87032342531067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.005207535492191562</v>
+        <v>0.005207535492191549</v>
       </c>
       <c r="B8" t="n">
         <v>0.3103933981030412</v>
@@ -550,12 +550,12 @@
         <v>0.1278772378516624</v>
       </c>
       <c r="D8" t="n">
-        <v>59.6046630058423</v>
+        <v>59.60466300584245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01692329625881002</v>
+        <v>0.01692329625880999</v>
       </c>
       <c r="B9" t="n">
         <v>0.2656967122066449</v>
@@ -564,12 +564,12 @@
         <v>0.1359761295822677</v>
       </c>
       <c r="D9" t="n">
-        <v>15.70005678227887</v>
+        <v>15.7000567822789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.003278039545663909</v>
+        <v>0.003278039545663908</v>
       </c>
       <c r="B10" t="n">
         <v>0.2785413080437059</v>
@@ -578,12 +578,12 @@
         <v>0.1355498721227621</v>
       </c>
       <c r="D10" t="n">
-        <v>84.97191817351678</v>
+        <v>84.97191817351683</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.008059386793793009</v>
+        <v>0.008059386793793038</v>
       </c>
       <c r="B11" t="n">
         <v>0.3258992471846491</v>
@@ -592,7 +592,7 @@
         <v>0.1270247229326513</v>
       </c>
       <c r="D11" t="n">
-        <v>40.43722624600206</v>
+        <v>40.43722624600191</v>
       </c>
     </row>
   </sheetData>
